--- a/Document/.Net/C#.xlsx
+++ b/Document/.Net/C#.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -336,6 +336,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368299</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1320164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7613650" y="342900"/>
+          <a:ext cx="2914649" cy="2266314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -413,20 +456,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>43814</xdr:rowOff>
+      <xdr:rowOff>62864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -443,7 +486,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
+          <a:off x="0" y="190500"/>
           <a:ext cx="2914649" cy="2266314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -457,15 +500,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Syntax" dataDxfId="11"/>
-    <tableColumn id="2" name="Description" dataDxfId="10"/>
-    <tableColumn id="3" name="Example" dataDxfId="9"/>
-    <tableColumn id="4" name="Note" dataDxfId="8"/>
-    <tableColumn id="5" name="Same" dataDxfId="7"/>
-    <tableColumn id="6" name="Resource" dataDxfId="6"/>
+    <tableColumn id="1" name="Syntax" dataDxfId="10"/>
+    <tableColumn id="2" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" name="Example" dataDxfId="8"/>
+    <tableColumn id="4" name="Note" dataDxfId="7"/>
+    <tableColumn id="5" name="Same" dataDxfId="6"/>
+    <tableColumn id="6" name="Resource" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,8 +519,8 @@
   <autoFilter ref="A3:C5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Title" dataDxfId="2"/>
-    <tableColumn id="2" name="Heap" dataDxfId="1"/>
-    <tableColumn id="3" name="Stack" dataDxfId="0"/>
+    <tableColumn id="2" name="Stack" dataDxfId="1"/>
+    <tableColumn id="3" name="Heap" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -840,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,10 +909,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -883,21 +926,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Document/.Net/C#.xlsx
+++ b/Document/.Net/C#.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
-    <sheet name="Heap vs Stack" sheetId="3" r:id="rId2"/>
-    <sheet name="StringBuilder" sheetId="4" r:id="rId3"/>
-    <sheet name="Images" sheetId="2" r:id="rId4"/>
+    <sheet name="OOP" sheetId="5" r:id="rId2"/>
+    <sheet name="Heap vs Stack" sheetId="3" r:id="rId3"/>
+    <sheet name="StringBuilder" sheetId="4" r:id="rId4"/>
+    <sheet name="Images" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Syntax</t>
   </si>
@@ -195,6 +196,48 @@
       </rPr>
       <t> modifier keyword.</t>
     </r>
+  </si>
+  <si>
+    <t>Tính đóng gói (Encapsulation):</t>
+  </si>
+  <si>
+    <t>Tính chất này không cho phép người dùng trực tiếp tác động đến dữ liệu bên trong đối tượng mà phải thông qua các phương thức mà đối tượng cung cấp. Tính chất này đảm bảo tính toàn vẹn của đối tượng.</t>
+  </si>
+  <si>
+    <t>Tính kế thừa (Inheritance)</t>
+  </si>
+  <si>
+    <t>Kế thừa, tái sử dụng phương thức, thuộc tính của lớp cơ sở và lớp kế thừa được gọi là lớp con, nó sẽ thừa hưởng những gì lớp cha có và cho phép.</t>
+  </si>
+  <si>
+    <t>Cũng với ví dụ là class mayvitinh, class này sẽ có các thuộc tính: mausac, chieudai, chieurong. Một class mayAsus, mayAcer sẽ kế thừa class mayvitinh do mayAsus cũng có các thuộc tính: mausac, chieudai, chieurong.  Thay vì sao chép những thuộc tính này, ta nên đặt chúng vào một lớp chung gọi là lớp cha – trong trường hợp này là mayvitinh và có những lớp con mayAsus, mayAcer kế thừa từ nó, tạo ra một mối quan hệ cha/con.</t>
+  </si>
+  <si>
+    <t>Tính đa hình (Polymorphism)</t>
+  </si>
+  <si>
+    <t>Tính đa hình cho phép các chức năng (method) khác nhau được thực thi khác nhau trên các đối tượng khác nhau.</t>
+  </si>
+  <si>
+    <t>Ví dụ như class mayvitinh ở trên, mỗi một dòng máy đều kế thừa từ lớp cha mayvitinh nhưng được chạy với một hệ điều hành khác nhau, mayAsus thì được chạy với hệ điều hành Windows, còn mayMacbook sẽ được chạy với hệ diều hành MacOs.</t>
+  </si>
+  <si>
+    <t>Tính trừu tượng(Abstraction)</t>
+  </si>
+  <si>
+    <t>Tập trung vào cốt lõi của đối tượng, bỏ qua những thứ không liên quan và không quan trọng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ví dụ: Bài toán quản lý sinh viên chúng ta chỉ cần quản lý các thông tin như
+Họ tên
+Ngày sinh
+Giới tính
+…
+mà lại không cần quản lý thêm các thông tin:
+Cân nặng
+Màu da
+Chiều cao
+Tại vì chúng thực sự không cần thiết.</t>
   </si>
 </sst>
 </file>
@@ -279,7 +322,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -500,27 +567,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A2:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Syntax" dataDxfId="10"/>
-    <tableColumn id="2" name="Description" dataDxfId="9"/>
-    <tableColumn id="3" name="Example" dataDxfId="8"/>
-    <tableColumn id="4" name="Note" dataDxfId="7"/>
-    <tableColumn id="5" name="Same" dataDxfId="6"/>
-    <tableColumn id="6" name="Resource" dataDxfId="5"/>
+    <tableColumn id="1" name="Syntax" dataDxfId="18"/>
+    <tableColumn id="2" name="Description" dataDxfId="17"/>
+    <tableColumn id="3" name="Example" dataDxfId="16"/>
+    <tableColumn id="4" name="Note" dataDxfId="15"/>
+    <tableColumn id="5" name="Same" dataDxfId="14"/>
+    <tableColumn id="6" name="Resource" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Syntax" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Example" dataDxfId="3"/>
+    <tableColumn id="4" name="Note" dataDxfId="2"/>
+    <tableColumn id="5" name="Same" dataDxfId="1"/>
+    <tableColumn id="6" name="Resource" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Title" dataDxfId="2"/>
-    <tableColumn id="2" name="Stack" dataDxfId="1"/>
-    <tableColumn id="3" name="Heap" dataDxfId="0"/>
+    <tableColumn id="1" name="Title" dataDxfId="10"/>
+    <tableColumn id="2" name="Stack" dataDxfId="9"/>
+    <tableColumn id="3" name="Heap" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,9 +963,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" customWidth="1"/>
+    <col min="3" max="3" width="58.36328125" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -975,7 +1157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Document/.Net/C#.xlsx
+++ b/Document/.Net/C#.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7AF4A4-51AB-4D9A-A674-E5CFE8530C5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Syntax</t>
   </si>
@@ -239,12 +240,34 @@
 Chiều cao
 Tại vì chúng thực sự không cần thiết.</t>
   </si>
+  <si>
+    <t>C# 1.0 released with .NET 1.0
+C# 1.2 (bizarrely enough); released with .NET 1.1
+C# 2.0 released with .NET 2.0
+C# 3.0 released with .NET 3.5
+C# 4.0 released with .NET 4
+C# 5.0 released with .NET 4.5
+C# 6.0 released with .NET 4.6
+C# 7.0 is released with .NET 4.6.2
+C# 7.3 is released with .NET 4.7.2
+C# 8.0 is released with NET Core 3.0
+C# 9.0 is released with NET 5.0</t>
+  </si>
+  <si>
+    <t>Version C#</t>
+  </si>
+  <si>
+    <t>Phụ thuộc vào framework</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/247621/what-are-the-correct-version-numbers-for-c/247623#247623</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +305,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,10 +331,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -318,8 +350,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -330,6 +366,21 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -346,21 +397,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -416,7 +452,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -459,7 +501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -497,7 +545,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -540,7 +594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -563,46 +623,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07C78B0-F618-4B6A-969A-995B14A6FA79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971801" y="0"/>
+          <a:ext cx="5543550" cy="6466215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A2:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:F13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A2:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Syntax" dataDxfId="18"/>
-    <tableColumn id="2" name="Description" dataDxfId="17"/>
-    <tableColumn id="3" name="Example" dataDxfId="16"/>
-    <tableColumn id="4" name="Note" dataDxfId="15"/>
-    <tableColumn id="5" name="Same" dataDxfId="14"/>
-    <tableColumn id="6" name="Resource" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Syntax" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Example" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Same" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Resource" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="A2:F6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:F6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Syntax" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" name="Example" dataDxfId="3"/>
-    <tableColumn id="4" name="Note" dataDxfId="2"/>
-    <tableColumn id="5" name="Same" dataDxfId="1"/>
-    <tableColumn id="6" name="Resource" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Syntax" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Example" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Same" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Resource" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A3:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Title" dataDxfId="10"/>
-    <tableColumn id="2" name="Stack" dataDxfId="9"/>
-    <tableColumn id="3" name="Heap" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Title" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Stack" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Heap" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -870,29 +974,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" customWidth="1"/>
-    <col min="4" max="4" width="48.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -926,7 +1030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -940,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -952,34 +1056,109 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
+    <row r="6" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" location="247623" xr:uid="{09E7BE59-2960-4396-A880-1A4B57A30DBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="60.6328125" customWidth="1"/>
-    <col min="3" max="3" width="58.36328125" customWidth="1"/>
-    <col min="4" max="4" width="48.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -1011,7 +1190,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1204,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1218,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1062,31 +1241,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="51.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +1287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1129,21 +1308,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1158,16 +1337,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
